--- a/data/basic_asset_classes_unconstrained.xlsx
+++ b/data/basic_asset_classes_unconstrained.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6113f60f932799a7/Desktop/Test Portfolios/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6113f60f932799a7/1Evan/.efficient_frontier/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{89F79A55-B33C-47ED-B201-06C3BCCC6DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1888C8DE-4B0D-42DA-8E3E-3BCE4EC15506}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{89F79A55-B33C-47ED-B201-06C3BCCC6DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBC33430-7DD5-4F51-906E-B1E99E3F847D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Ticker</t>
   </si>
@@ -53,9 +53,6 @@
     <t>IWM</t>
   </si>
   <si>
-    <t>IYR</t>
-  </si>
-  <si>
     <t>Curr Weight</t>
   </si>
   <si>
@@ -63,6 +60,12 @@
   </si>
   <si>
     <t>IVV</t>
+  </si>
+  <si>
+    <t>EEM</t>
+  </si>
+  <si>
+    <t>GLD</t>
   </si>
 </sst>
 </file>
@@ -440,10 +443,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,7 +468,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -492,7 +495,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -514,7 +517,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -525,12 +528,23 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="5">
+        <v>0.99999000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
         <v>0.99999000000000005</v>
       </c>
     </row>
